--- a/class_schedules_spring_2019/RUSSIAN & EAST EUROPEAN STUDIES (REES).xlsx
+++ b/class_schedules_spring_2019/RUSSIAN & EAST EUROPEAN STUDIES (REES).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>223</t>
   </si>
@@ -25,16 +25,25 @@
     <t>19878</t>
   </si>
   <si>
+    <t>TR</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>From Russia with Lies TR</t>
-  </si>
-  <si>
-    <t>0700-0820pm</t>
+    <t>0700</t>
+  </si>
+  <si>
+    <t>0820pm</t>
   </si>
   <si>
     <t>PETE</t>
+  </si>
+  <si>
+    <t>From Russia with Lies</t>
+  </si>
+  <si>
+    <t>232 Makarenko</t>
   </si>
   <si>
     <t>232</t>
@@ -398,13 +407,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -435,8 +444,14 @@
       <c r="K1" s="1">
         <v>9</v>
       </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -450,25 +465,54 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
+      <c r="F3" t="s">
         <v>6</v>
       </c>
-      <c r="J2" t="s">
+      <c r="G3" t="s">
         <v>7</v>
       </c>
-      <c r="K2" t="s">
-        <v>8</v>
+      <c r="H3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
